--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>normaltester</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>3353031936</t>
+  </si>
+  <si>
+    <t>3341455872</t>
+  </si>
+  <si>
+    <t>3357754112</t>
+  </si>
+  <si>
+    <t>3344250624</t>
+  </si>
+  <si>
+    <t>3346685184</t>
   </si>
 </sst>
 </file>
@@ -402,7 +414,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>normaltester</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>3346685184</t>
+  </si>
+  <si>
+    <t>3373363968</t>
+  </si>
+  <si>
+    <t>3367494400</t>
+  </si>
+  <si>
+    <t>3315788544</t>
   </si>
 </sst>
 </file>
@@ -432,6 +441,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>normaltester</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>3315788544</t>
+  </si>
+  <si>
+    <t>3307523712</t>
+  </si>
+  <si>
+    <t>3330617856</t>
+  </si>
+  <si>
+    <t>3395766528</t>
+  </si>
+  <si>
+    <t>3363618368</t>
+  </si>
+  <si>
+    <t>3347262720</t>
+  </si>
+  <si>
+    <t>3341588992</t>
+  </si>
+  <si>
+    <t>3301434112</t>
+  </si>
+  <si>
+    <t>3378266880</t>
+  </si>
+  <si>
+    <t>3310577920</t>
+  </si>
+  <si>
+    <t>3312903936</t>
+  </si>
+  <si>
+    <t>3341903360</t>
+  </si>
+  <si>
+    <t>3353564160</t>
+  </si>
+  <si>
+    <t>3306600448</t>
   </si>
 </sst>
 </file>
@@ -456,6 +495,71 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>normaltester</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>3306600448</t>
+  </si>
+  <si>
+    <t>3397079808</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>normaltester</t>
   </si>
@@ -109,6 +109,63 @@
   </si>
   <si>
     <t>3397079808</t>
+  </si>
+  <si>
+    <t>3320036608</t>
+  </si>
+  <si>
+    <t>3318789888</t>
+  </si>
+  <si>
+    <t>3335400448</t>
+  </si>
+  <si>
+    <t>3386408704</t>
+  </si>
+  <si>
+    <t>3373721088</t>
+  </si>
+  <si>
+    <t>3301729792</t>
+  </si>
+  <si>
+    <t>3309341952</t>
+  </si>
+  <si>
+    <t>3353609728</t>
+  </si>
+  <si>
+    <t>3311197184</t>
+  </si>
+  <si>
+    <t>3392648960</t>
+  </si>
+  <si>
+    <t>3385755136</t>
+  </si>
+  <si>
+    <t>3340498176</t>
+  </si>
+  <si>
+    <t>3389296640</t>
+  </si>
+  <si>
+    <t>3319841000</t>
+  </si>
+  <si>
+    <t>3335292672</t>
+  </si>
+  <si>
+    <t>YOUR PAYMENT WAS DECLINED</t>
+  </si>
+  <si>
+    <t>3399858176</t>
+  </si>
+  <si>
+    <t>3388921856</t>
+  </si>
+  <si>
+    <t>3397952512</t>
   </si>
 </sst>
 </file>
@@ -568,6 +625,102 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>normaltester</t>
   </si>
@@ -166,6 +166,45 @@
   </si>
   <si>
     <t>3397952512</t>
+  </si>
+  <si>
+    <t>3347517184</t>
+  </si>
+  <si>
+    <t>3308690688</t>
+  </si>
+  <si>
+    <t>3345656320</t>
+  </si>
+  <si>
+    <t>3353513984</t>
+  </si>
+  <si>
+    <t>3351466752</t>
+  </si>
+  <si>
+    <t>3389499648</t>
+  </si>
+  <si>
+    <t>3328621312</t>
+  </si>
+  <si>
+    <t>3351743744</t>
+  </si>
+  <si>
+    <t>3389639168</t>
+  </si>
+  <si>
+    <t>3339273216</t>
+  </si>
+  <si>
+    <t>3326188032</t>
+  </si>
+  <si>
+    <t>3352111360</t>
+  </si>
+  <si>
+    <t>3307289856</t>
   </si>
 </sst>
 </file>
@@ -721,6 +760,71 @@
         <v>46</v>
       </c>
     </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,9 +16,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>3302397440</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t>3399320032</t>
+  </si>
+  <si>
+    <t>3316570112</t>
+  </si>
+  <si>
+    <t>3343357696</t>
+  </si>
+  <si>
+    <t>3322302976</t>
+  </si>
+  <si>
+    <t>3332153472</t>
+  </si>
+  <si>
+    <t>3392621184</t>
+  </si>
+  <si>
+    <t>3355435520</t>
+  </si>
+  <si>
+    <t>3346247168</t>
+  </si>
+  <si>
+    <t>3361960704</t>
+  </si>
+  <si>
+    <t>YOUR PAYMENT WAS DECLINED</t>
+  </si>
+  <si>
+    <t>3397409792</t>
+  </si>
+  <si>
+    <t>3328901632</t>
+  </si>
+  <si>
+    <t>3371851520</t>
+  </si>
+  <si>
+    <t>3311340544</t>
+  </si>
+  <si>
+    <t>3338834688</t>
+  </si>
+  <si>
+    <t>3334672128</t>
+  </si>
+  <si>
+    <t>3361707520</t>
+  </si>
+  <si>
+    <t>3321968266</t>
+  </si>
+  <si>
+    <t>3341655808</t>
+  </si>
+  <si>
+    <t>3359681024</t>
+  </si>
+  <si>
+    <t>3336408064</t>
+  </si>
+  <si>
+    <t>3339858688</t>
+  </si>
+  <si>
+    <t>3381906176</t>
+  </si>
+  <si>
+    <t>3388346880</t>
+  </si>
+  <si>
+    <t>3335325696</t>
+  </si>
+  <si>
+    <t>3386407168</t>
+  </si>
+  <si>
+    <t>3357847552</t>
+  </si>
+  <si>
+    <t>3335478144</t>
+  </si>
+  <si>
+    <t>3364033536</t>
+  </si>
+  <si>
+    <t>3326515712</t>
+  </si>
+  <si>
+    <t>3338583552</t>
+  </si>
+  <si>
+    <t>3314734080</t>
+  </si>
+  <si>
+    <t>3389340544</t>
+  </si>
+  <si>
+    <t>3376333824</t>
+  </si>
+  <si>
+    <t>3353421888</t>
+  </si>
+  <si>
+    <t>3378081024</t>
+  </si>
+  <si>
+    <t>3377704192</t>
+  </si>
+  <si>
+    <t>3354159072</t>
+  </si>
+  <si>
+    <t>3310070016</t>
+  </si>
+  <si>
+    <t>3375197440</t>
   </si>
 </sst>
 </file>
@@ -361,7 +478,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,13 +486,7 @@
     <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>3399320032</t>
   </si>
@@ -136,6 +136,78 @@
   </si>
   <si>
     <t>3375197440</t>
+  </si>
+  <si>
+    <t>3307388032</t>
+  </si>
+  <si>
+    <t>3375448320</t>
+  </si>
+  <si>
+    <t>3307131648</t>
+  </si>
+  <si>
+    <t>3336507136</t>
+  </si>
+  <si>
+    <t>3398369024</t>
+  </si>
+  <si>
+    <t>3350861568</t>
+  </si>
+  <si>
+    <t>3376610048</t>
+  </si>
+  <si>
+    <t>3328502016</t>
+  </si>
+  <si>
+    <t>3372804864</t>
+  </si>
+  <si>
+    <t>3375312128</t>
+  </si>
+  <si>
+    <t>3352344064</t>
+  </si>
+  <si>
+    <t>3359006336</t>
+  </si>
+  <si>
+    <t>3371734272</t>
+  </si>
+  <si>
+    <t>3389886720</t>
+  </si>
+  <si>
+    <t>3350217040</t>
+  </si>
+  <si>
+    <t>3330080640</t>
+  </si>
+  <si>
+    <t>3344437760</t>
+  </si>
+  <si>
+    <t>3372409728</t>
+  </si>
+  <si>
+    <t>3300292608</t>
+  </si>
+  <si>
+    <t>3304940800</t>
+  </si>
+  <si>
+    <t>3384389376</t>
+  </si>
+  <si>
+    <t>3358612224</t>
+  </si>
+  <si>
+    <t>3343259648</t>
+  </si>
+  <si>
+    <t>3356227840</t>
   </si>
 </sst>
 </file>
@@ -486,7 +558,87 @@
     <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>3399320032</t>
   </si>
@@ -208,6 +208,138 @@
   </si>
   <si>
     <t>3356227840</t>
+  </si>
+  <si>
+    <t>3367486720</t>
+  </si>
+  <si>
+    <t>3354391936</t>
+  </si>
+  <si>
+    <t>3305755648</t>
+  </si>
+  <si>
+    <t>3353342464</t>
+  </si>
+  <si>
+    <t>3390596864</t>
+  </si>
+  <si>
+    <t>3379788032</t>
+  </si>
+  <si>
+    <t>3362509056</t>
+  </si>
+  <si>
+    <t>3386161280</t>
+  </si>
+  <si>
+    <t>3340502016</t>
+  </si>
+  <si>
+    <t>3335022144</t>
+  </si>
+  <si>
+    <t>3316828416</t>
+  </si>
+  <si>
+    <t>3378805504</t>
+  </si>
+  <si>
+    <t>3335596672</t>
+  </si>
+  <si>
+    <t>3388286720</t>
+  </si>
+  <si>
+    <t>3363728896</t>
+  </si>
+  <si>
+    <t>3329988224</t>
+  </si>
+  <si>
+    <t>3351233024</t>
+  </si>
+  <si>
+    <t>3328530560</t>
+  </si>
+  <si>
+    <t>3331917312</t>
+  </si>
+  <si>
+    <t>3391964800</t>
+  </si>
+  <si>
+    <t>3388481792</t>
+  </si>
+  <si>
+    <t>3396816896</t>
+  </si>
+  <si>
+    <t>3360668416</t>
+  </si>
+  <si>
+    <t>3304986880</t>
+  </si>
+  <si>
+    <t>3386869760</t>
+  </si>
+  <si>
+    <t>3303223872</t>
+  </si>
+  <si>
+    <t>3349001728</t>
+  </si>
+  <si>
+    <t>3338059520</t>
+  </si>
+  <si>
+    <t>3303819520</t>
+  </si>
+  <si>
+    <t>3370675840</t>
+  </si>
+  <si>
+    <t>3384394240</t>
+  </si>
+  <si>
+    <t>3375841792</t>
+  </si>
+  <si>
+    <t>3361883904</t>
+  </si>
+  <si>
+    <t>3349993472</t>
+  </si>
+  <si>
+    <t>3332706048</t>
+  </si>
+  <si>
+    <t>3330407424</t>
+  </si>
+  <si>
+    <t>3338171392</t>
+  </si>
+  <si>
+    <t>3382232832</t>
+  </si>
+  <si>
+    <t>3376997120</t>
+  </si>
+  <si>
+    <t>3350858496</t>
+  </si>
+  <si>
+    <t>3371084800</t>
+  </si>
+  <si>
+    <t>3399809024</t>
+  </si>
+  <si>
+    <t>3381346048</t>
+  </si>
+  <si>
+    <t>3359894368</t>
   </si>
 </sst>
 </file>
@@ -558,87 +690,7 @@
     <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,330 +16,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
-  <si>
-    <t>3399320032</t>
-  </si>
-  <si>
-    <t>3316570112</t>
-  </si>
-  <si>
-    <t>3343357696</t>
-  </si>
-  <si>
-    <t>3322302976</t>
-  </si>
-  <si>
-    <t>3332153472</t>
-  </si>
-  <si>
-    <t>3392621184</t>
-  </si>
-  <si>
-    <t>3355435520</t>
-  </si>
-  <si>
-    <t>3346247168</t>
-  </si>
-  <si>
-    <t>3361960704</t>
-  </si>
-  <si>
-    <t>YOUR PAYMENT WAS DECLINED</t>
-  </si>
-  <si>
-    <t>3397409792</t>
-  </si>
-  <si>
-    <t>3328901632</t>
-  </si>
-  <si>
-    <t>3371851520</t>
-  </si>
-  <si>
-    <t>3311340544</t>
-  </si>
-  <si>
-    <t>3338834688</t>
-  </si>
-  <si>
-    <t>3334672128</t>
-  </si>
-  <si>
-    <t>3361707520</t>
-  </si>
-  <si>
-    <t>3321968266</t>
-  </si>
-  <si>
-    <t>3341655808</t>
-  </si>
-  <si>
-    <t>3359681024</t>
-  </si>
-  <si>
-    <t>3336408064</t>
-  </si>
-  <si>
-    <t>3339858688</t>
-  </si>
-  <si>
-    <t>3381906176</t>
-  </si>
-  <si>
-    <t>3388346880</t>
-  </si>
-  <si>
-    <t>3335325696</t>
-  </si>
-  <si>
-    <t>3386407168</t>
-  </si>
-  <si>
-    <t>3357847552</t>
-  </si>
-  <si>
-    <t>3335478144</t>
-  </si>
-  <si>
-    <t>3364033536</t>
-  </si>
-  <si>
-    <t>3326515712</t>
-  </si>
-  <si>
-    <t>3338583552</t>
-  </si>
-  <si>
-    <t>3314734080</t>
-  </si>
-  <si>
-    <t>3389340544</t>
-  </si>
-  <si>
-    <t>3376333824</t>
-  </si>
-  <si>
-    <t>3353421888</t>
-  </si>
-  <si>
-    <t>3378081024</t>
-  </si>
-  <si>
-    <t>3377704192</t>
-  </si>
-  <si>
-    <t>3354159072</t>
-  </si>
-  <si>
-    <t>3310070016</t>
-  </si>
-  <si>
-    <t>3375197440</t>
-  </si>
-  <si>
-    <t>3307388032</t>
-  </si>
-  <si>
-    <t>3375448320</t>
-  </si>
-  <si>
-    <t>3307131648</t>
-  </si>
-  <si>
-    <t>3336507136</t>
-  </si>
-  <si>
-    <t>3398369024</t>
-  </si>
-  <si>
-    <t>3350861568</t>
-  </si>
-  <si>
-    <t>3376610048</t>
-  </si>
-  <si>
-    <t>3328502016</t>
-  </si>
-  <si>
-    <t>3372804864</t>
-  </si>
-  <si>
-    <t>3375312128</t>
-  </si>
-  <si>
-    <t>3352344064</t>
-  </si>
-  <si>
-    <t>3359006336</t>
-  </si>
-  <si>
-    <t>3371734272</t>
-  </si>
-  <si>
-    <t>3389886720</t>
-  </si>
-  <si>
-    <t>3350217040</t>
-  </si>
-  <si>
-    <t>3330080640</t>
-  </si>
-  <si>
-    <t>3344437760</t>
-  </si>
-  <si>
-    <t>3372409728</t>
-  </si>
-  <si>
-    <t>3300292608</t>
-  </si>
-  <si>
-    <t>3304940800</t>
-  </si>
-  <si>
-    <t>3384389376</t>
-  </si>
-  <si>
-    <t>3358612224</t>
-  </si>
-  <si>
-    <t>3343259648</t>
-  </si>
-  <si>
-    <t>3356227840</t>
-  </si>
-  <si>
-    <t>3367486720</t>
-  </si>
-  <si>
-    <t>3354391936</t>
-  </si>
-  <si>
-    <t>3305755648</t>
-  </si>
-  <si>
-    <t>3353342464</t>
-  </si>
-  <si>
-    <t>3390596864</t>
-  </si>
-  <si>
-    <t>3379788032</t>
-  </si>
-  <si>
-    <t>3362509056</t>
-  </si>
-  <si>
-    <t>3386161280</t>
-  </si>
-  <si>
-    <t>3340502016</t>
-  </si>
-  <si>
-    <t>3335022144</t>
-  </si>
-  <si>
-    <t>3316828416</t>
-  </si>
-  <si>
-    <t>3378805504</t>
-  </si>
-  <si>
-    <t>3335596672</t>
-  </si>
-  <si>
-    <t>3388286720</t>
-  </si>
-  <si>
-    <t>3363728896</t>
-  </si>
-  <si>
-    <t>3329988224</t>
-  </si>
-  <si>
-    <t>3351233024</t>
-  </si>
-  <si>
-    <t>3328530560</t>
-  </si>
-  <si>
-    <t>3331917312</t>
-  </si>
-  <si>
-    <t>3391964800</t>
-  </si>
-  <si>
-    <t>3388481792</t>
-  </si>
-  <si>
-    <t>3396816896</t>
-  </si>
-  <si>
-    <t>3360668416</t>
-  </si>
-  <si>
-    <t>3304986880</t>
-  </si>
-  <si>
-    <t>3386869760</t>
-  </si>
-  <si>
-    <t>3303223872</t>
-  </si>
-  <si>
-    <t>3349001728</t>
-  </si>
-  <si>
-    <t>3338059520</t>
-  </si>
-  <si>
-    <t>3303819520</t>
-  </si>
-  <si>
-    <t>3370675840</t>
-  </si>
-  <si>
-    <t>3384394240</t>
-  </si>
-  <si>
-    <t>3375841792</t>
-  </si>
-  <si>
-    <t>3361883904</t>
-  </si>
-  <si>
-    <t>3349993472</t>
-  </si>
-  <si>
-    <t>3332706048</t>
-  </si>
-  <si>
-    <t>3330407424</t>
-  </si>
-  <si>
-    <t>3338171392</t>
-  </si>
-  <si>
-    <t>3382232832</t>
-  </si>
-  <si>
-    <t>3376997120</t>
-  </si>
-  <si>
-    <t>3350858496</t>
-  </si>
-  <si>
-    <t>3371084800</t>
-  </si>
-  <si>
-    <t>3399809024</t>
-  </si>
-  <si>
-    <t>3381346048</t>
-  </si>
-  <si>
-    <t>3359894368</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+  <si>
+    <t>NormalTester</t>
+  </si>
+  <si>
+    <t>124.69</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3332691712</t>
+  </si>
+  <si>
+    <t>169.58</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3349021696</t>
+  </si>
+  <si>
+    <t>164.59</t>
+  </si>
+  <si>
+    <t>3376272640</t>
+  </si>
+  <si>
+    <t>97.79</t>
+  </si>
+  <si>
+    <t>3333308416</t>
+  </si>
+  <si>
+    <t>193.05</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3374272768</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3376186880</t>
+  </si>
+  <si>
+    <t>467.66</t>
+  </si>
+  <si>
+    <t>3330079744</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>MasterTester</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>3362869088</t>
+  </si>
+  <si>
+    <t>3300186880</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>3371902080</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>3343628032</t>
+  </si>
+  <si>
+    <t>156.86</t>
+  </si>
+  <si>
+    <t>3364938240</t>
+  </si>
+  <si>
+    <t>309.646</t>
+  </si>
+  <si>
+    <t>3332001824</t>
+  </si>
+  <si>
+    <t>728.21</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>3319880192</t>
+  </si>
+  <si>
+    <t>750.12</t>
+  </si>
+  <si>
+    <t>3325056512</t>
+  </si>
+  <si>
+    <t>3354618624</t>
+  </si>
+  <si>
+    <t>3321564288</t>
+  </si>
+  <si>
+    <t>3346189952</t>
+  </si>
+  <si>
+    <t>3376961280</t>
+  </si>
+  <si>
+    <t>3378972160</t>
+  </si>
+  <si>
+    <t>3367723264</t>
+  </si>
+  <si>
+    <t>3317308160</t>
   </si>
 </sst>
 </file>
@@ -376,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,19 +497,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="2" width="16.0" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>NormalTester</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>3317308160</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>442</t>
   </si>
 </sst>
 </file>
@@ -507,22 +522,7 @@
   <cols>
     <col min="1" max="2" width="16.0" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>NormalTester</t>
   </si>
@@ -172,6 +172,36 @@
   </si>
   <si>
     <t>442</t>
+  </si>
+  <si>
+    <t>3395617088</t>
+  </si>
+  <si>
+    <t>3355171072</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>3377674240</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>3353589632</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>3381819200</t>
+  </si>
+  <si>
+    <t>692.647</t>
+  </si>
+  <si>
+    <t>3372902816</t>
   </si>
 </sst>
 </file>
@@ -522,7 +552,28 @@
   <cols>
     <col min="1" max="2" width="16.0" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="85">
   <si>
     <t>NormalTester</t>
   </si>
@@ -202,6 +202,75 @@
   </si>
   <si>
     <t>3372902816</t>
+  </si>
+  <si>
+    <t>817.647</t>
+  </si>
+  <si>
+    <t>3325249280</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>3387817728</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>1399.583</t>
+  </si>
+  <si>
+    <t>3352932096</t>
+  </si>
+  <si>
+    <t>1189.08</t>
+  </si>
+  <si>
+    <t>3317613824</t>
+  </si>
+  <si>
+    <t>1314.08</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>3363637504</t>
+  </si>
+  <si>
+    <t>1439.08</t>
+  </si>
+  <si>
+    <t>3396414976</t>
+  </si>
+  <si>
+    <t>1564.08</t>
+  </si>
+  <si>
+    <t>3374058848</t>
+  </si>
+  <si>
+    <t>2297.149</t>
+  </si>
+  <si>
+    <t>3382188032</t>
+  </si>
+  <si>
+    <t>2384.884</t>
+  </si>
+  <si>
+    <t>3315881216</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>1518.028</t>
+  </si>
+  <si>
+    <t>3346949888</t>
   </si>
 </sst>
 </file>
@@ -561,16 +630,76 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="122">
   <si>
     <t>NormalTester</t>
   </si>
@@ -271,6 +271,117 @@
   </si>
   <si>
     <t>3346949888</t>
+  </si>
+  <si>
+    <t>2094.89</t>
+  </si>
+  <si>
+    <t>3361398144</t>
+  </si>
+  <si>
+    <t>3019.05</t>
+  </si>
+  <si>
+    <t>3363564544</t>
+  </si>
+  <si>
+    <t>3085.553</t>
+  </si>
+  <si>
+    <t>3331687744</t>
+  </si>
+  <si>
+    <t>2466.33</t>
+  </si>
+  <si>
+    <t>3334122240</t>
+  </si>
+  <si>
+    <t>3524.209</t>
+  </si>
+  <si>
+    <t>3310533120</t>
+  </si>
+  <si>
+    <t>3844.203</t>
+  </si>
+  <si>
+    <t>3356273536</t>
+  </si>
+  <si>
+    <t>4004.207</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>3344809984</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>657.75</t>
+  </si>
+  <si>
+    <t>3324227840</t>
+  </si>
+  <si>
+    <t>3343915520</t>
+  </si>
+  <si>
+    <t>183.18</t>
+  </si>
+  <si>
+    <t>3318429184</t>
+  </si>
+  <si>
+    <t>191.38</t>
+  </si>
+  <si>
+    <t>3327604736</t>
+  </si>
+  <si>
+    <t>122.03</t>
+  </si>
+  <si>
+    <t>3377665280</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>260.63</t>
+  </si>
+  <si>
+    <t>3377651328</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>650.56</t>
+  </si>
+  <si>
+    <t>3393110272</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>711.34</t>
+  </si>
+  <si>
+    <t>3352123392</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>735.82</t>
+  </si>
+  <si>
+    <t>3364331264</t>
   </si>
 </sst>
 </file>
@@ -624,82 +735,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="125">
   <si>
     <t>NormalTester</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>3364331264</t>
+  </si>
+  <si>
+    <t>3061.92</t>
+  </si>
+  <si>
+    <t>InterMasterTester</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -735,82 +744,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="131">
   <si>
     <t>NormalTester</t>
   </si>
@@ -391,6 +391,24 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>211.21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>601.287</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>817.75</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
 </sst>
 </file>
@@ -744,19 +762,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="133">
   <si>
     <t>NormalTester</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>400</t>
+  </si>
+  <si>
+    <t>3186.92</t>
+  </si>
+  <si>
+    <t>4334.211</t>
   </si>
 </sst>
 </file>
@@ -759,25 +765,7 @@
   <cols>
     <col min="1" max="2" width="16.0" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="152">
   <si>
     <t>NormalTester</t>
   </si>
@@ -415,6 +415,63 @@
   </si>
   <si>
     <t>4334.211</t>
+  </si>
+  <si>
+    <t>3336406784</t>
+  </si>
+  <si>
+    <t>738.787</t>
+  </si>
+  <si>
+    <t>3359314944</t>
+  </si>
+  <si>
+    <t>1013.79</t>
+  </si>
+  <si>
+    <t>3380540672</t>
+  </si>
+  <si>
+    <t>1151.29</t>
+  </si>
+  <si>
+    <t>3302655488</t>
+  </si>
+  <si>
+    <t>1288.79</t>
+  </si>
+  <si>
+    <t>3393633024</t>
+  </si>
+  <si>
+    <t>1939.754</t>
+  </si>
+  <si>
+    <t>3376897280</t>
+  </si>
+  <si>
+    <t>2037.988</t>
+  </si>
+  <si>
+    <t>3348632064</t>
+  </si>
+  <si>
+    <t>1685.6</t>
+  </si>
+  <si>
+    <t>3377298944</t>
+  </si>
+  <si>
+    <t>1823.1</t>
+  </si>
+  <si>
+    <t>3389810624</t>
+  </si>
+  <si>
+    <t>2666.416</t>
+  </si>
+  <si>
+    <t>3346092544</t>
   </si>
 </sst>
 </file>
@@ -765,7 +822,48 @@
   <cols>
     <col min="1" max="2" width="16.0" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="192">
   <si>
     <t>NormalTester</t>
   </si>
@@ -472,6 +472,126 @@
   </si>
   <si>
     <t>3346092544</t>
+  </si>
+  <si>
+    <t>2078.25</t>
+  </si>
+  <si>
+    <t>3343904960</t>
+  </si>
+  <si>
+    <t>3013.42</t>
+  </si>
+  <si>
+    <t>3333840384</t>
+  </si>
+  <si>
+    <t>3080.09</t>
+  </si>
+  <si>
+    <t>3398277728</t>
+  </si>
+  <si>
+    <t>InterTester</t>
+  </si>
+  <si>
+    <t>2475.06</t>
+  </si>
+  <si>
+    <t>3321606304</t>
+  </si>
+  <si>
+    <t>3372722432</t>
+  </si>
+  <si>
+    <t>3348820608</t>
+  </si>
+  <si>
+    <t>3322960128</t>
+  </si>
+  <si>
+    <t>3319034112</t>
+  </si>
+  <si>
+    <t>3366358784</t>
+  </si>
+  <si>
+    <t>3314944768</t>
+  </si>
+  <si>
+    <t>178.5</t>
+  </si>
+  <si>
+    <t>3327766720</t>
+  </si>
+  <si>
+    <t>328.54</t>
+  </si>
+  <si>
+    <t>3303132672</t>
+  </si>
+  <si>
+    <t>301.27</t>
+  </si>
+  <si>
+    <t>3319051008</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>33805.17</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>3321289984</t>
+  </si>
+  <si>
+    <t>688.5</t>
+  </si>
+  <si>
+    <t>3361802496</t>
+  </si>
+  <si>
+    <t>1114.86</t>
+  </si>
+  <si>
+    <t>3323793920</t>
+  </si>
+  <si>
+    <t>937.4</t>
+  </si>
+  <si>
+    <t>3372936192</t>
+  </si>
+  <si>
+    <t>1453.36</t>
+  </si>
+  <si>
+    <t>3378976384</t>
+  </si>
+  <si>
+    <t>3357327232</t>
+  </si>
+  <si>
+    <t>1036.47</t>
+  </si>
+  <si>
+    <t>287.25</t>
+  </si>
+  <si>
+    <t>3013.54</t>
+  </si>
+  <si>
+    <t>3334931456</t>
+  </si>
+  <si>
+    <t>4285.41</t>
+  </si>
+  <si>
+    <t>3382423744</t>
   </si>
 </sst>
 </file>
@@ -831,16 +951,16 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -851,16 +971,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="199">
   <si>
     <t>NormalTester</t>
   </si>
@@ -592,6 +592,27 @@
   </si>
   <si>
     <t>3382423744</t>
+  </si>
+  <si>
+    <t>3268.69</t>
+  </si>
+  <si>
+    <t>3304694784</t>
+  </si>
+  <si>
+    <t>3333269248</t>
+  </si>
+  <si>
+    <t>4938.98</t>
+  </si>
+  <si>
+    <t>3333494272</t>
+  </si>
+  <si>
+    <t>5098.97</t>
+  </si>
+  <si>
+    <t>3388028672</t>
   </si>
 </sst>
 </file>
@@ -948,39 +969,19 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="219">
   <si>
     <t>NormalTester</t>
   </si>
@@ -613,6 +613,66 @@
   </si>
   <si>
     <t>3388028672</t>
+  </si>
+  <si>
+    <t>5258.98</t>
+  </si>
+  <si>
+    <t>3371096320</t>
+  </si>
+  <si>
+    <t>5418.97</t>
+  </si>
+  <si>
+    <t>1321.52</t>
+  </si>
+  <si>
+    <t>3381950720</t>
+  </si>
+  <si>
+    <t>1452.77</t>
+  </si>
+  <si>
+    <t>3336102144</t>
+  </si>
+  <si>
+    <t>1584.02</t>
+  </si>
+  <si>
+    <t>3315692480</t>
+  </si>
+  <si>
+    <t>1715.27</t>
+  </si>
+  <si>
+    <t>3305644544</t>
+  </si>
+  <si>
+    <t>1846.52</t>
+  </si>
+  <si>
+    <t>3382319616</t>
+  </si>
+  <si>
+    <t>1977.77</t>
+  </si>
+  <si>
+    <t>3362865664</t>
+  </si>
+  <si>
+    <t>3330600960</t>
+  </si>
+  <si>
+    <t>2109.02</t>
+  </si>
+  <si>
+    <t>3320605440</t>
+  </si>
+  <si>
+    <t>2240.27</t>
+  </si>
+  <si>
+    <t>3322910208</t>
   </si>
 </sst>
 </file>
@@ -966,22 +1026,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
-        <v>198</v>
+      <c r="F2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="224">
   <si>
     <t>NormalTester</t>
   </si>
@@ -673,6 +673,21 @@
   </si>
   <si>
     <t>3322910208</t>
+  </si>
+  <si>
+    <t>2371.52</t>
+  </si>
+  <si>
+    <t>3307960576</t>
+  </si>
+  <si>
+    <t>2502.77</t>
+  </si>
+  <si>
+    <t>3373257216</t>
+  </si>
+  <si>
+    <t>2634.02</t>
   </si>
 </sst>
 </file>
@@ -1032,36 +1047,13 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="237">
   <si>
     <t>NormalTester</t>
   </si>
@@ -688,6 +688,45 @@
   </si>
   <si>
     <t>2634.02</t>
+  </si>
+  <si>
+    <t>iuliia.1</t>
+  </si>
+  <si>
+    <t>3374990848</t>
+  </si>
+  <si>
+    <t>3382515808</t>
+  </si>
+  <si>
+    <t>iuliia.4</t>
+  </si>
+  <si>
+    <t>3388803328</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>iuliia.2</t>
+  </si>
+  <si>
+    <t>3355878656</t>
+  </si>
+  <si>
+    <t>3391062016</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3332356608</t>
   </si>
 </sst>
 </file>
@@ -1041,19 +1080,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="281">
   <si>
     <t>NormalTester</t>
   </si>
@@ -727,6 +727,138 @@
   </si>
   <si>
     <t>3332356608</t>
+  </si>
+  <si>
+    <t>3315042048</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>3396985344</t>
+  </si>
+  <si>
+    <t>3399315968</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>3306392576</t>
+  </si>
+  <si>
+    <t>213.6</t>
+  </si>
+  <si>
+    <t>3327821056</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>iuliia.6</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>3310972800</t>
+  </si>
+  <si>
+    <t>3333993216</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>3358423040</t>
+  </si>
+  <si>
+    <t>3372058880</t>
+  </si>
+  <si>
+    <t>129.55</t>
+  </si>
+  <si>
+    <t>3348134112</t>
+  </si>
+  <si>
+    <t>13.68</t>
+  </si>
+  <si>
+    <t>418.49</t>
+  </si>
+  <si>
+    <t>3376655616</t>
+  </si>
+  <si>
+    <t>3328601344</t>
+  </si>
+  <si>
+    <t>98.63</t>
+  </si>
+  <si>
+    <t>166.07</t>
+  </si>
+  <si>
+    <t>112.63</t>
+  </si>
+  <si>
+    <t>126.63</t>
+  </si>
+  <si>
+    <t>3388367616</t>
+  </si>
+  <si>
+    <t>154.63</t>
+  </si>
+  <si>
+    <t>3371181568</t>
+  </si>
+  <si>
+    <t>3331161856</t>
+  </si>
+  <si>
+    <t>3326986368</t>
+  </si>
+  <si>
+    <t>16.97</t>
+  </si>
+  <si>
+    <t>3302507776</t>
+  </si>
+  <si>
+    <t>627.95</t>
+  </si>
+  <si>
+    <t>3312077312</t>
+  </si>
+  <si>
+    <t>3354929664</t>
+  </si>
+  <si>
+    <t>3356715776</t>
+  </si>
+  <si>
+    <t>440.29</t>
+  </si>
+  <si>
+    <t>3315897600</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>410.89</t>
+  </si>
+  <si>
+    <t>3363127296</t>
+  </si>
+  <si>
+    <t>168.63</t>
   </si>
 </sst>
 </file>
@@ -1080,22 +1212,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
+      <c r="B2" t="s">
+        <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>235</v>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="299">
   <si>
     <t>NormalTester</t>
   </si>
@@ -859,6 +859,60 @@
   </si>
   <si>
     <t>168.63</t>
+  </si>
+  <si>
+    <t>367.5</t>
+  </si>
+  <si>
+    <t>3322745088</t>
+  </si>
+  <si>
+    <t>3388440192</t>
+  </si>
+  <si>
+    <t>3324732032</t>
+  </si>
+  <si>
+    <t>254.6</t>
+  </si>
+  <si>
+    <t>3368384000</t>
+  </si>
+  <si>
+    <t>196.63</t>
+  </si>
+  <si>
+    <t>3305014528</t>
+  </si>
+  <si>
+    <t>3398670848</t>
+  </si>
+  <si>
+    <t>24.26</t>
+  </si>
+  <si>
+    <t>3321217280</t>
+  </si>
+  <si>
+    <t>837.4</t>
+  </si>
+  <si>
+    <t>3316641632</t>
+  </si>
+  <si>
+    <t>1562.88</t>
+  </si>
+  <si>
+    <t>3369803520</t>
+  </si>
+  <si>
+    <t>680.82</t>
+  </si>
+  <si>
+    <t>3300547584</t>
+  </si>
+  <si>
+    <t>210.63</t>
   </si>
 </sst>
 </file>
@@ -1212,38 +1266,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>224</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="341">
   <si>
     <t>NormalTester</t>
   </si>
@@ -913,6 +913,132 @@
   </si>
   <si>
     <t>210.63</t>
+  </si>
+  <si>
+    <t>149.49</t>
+  </si>
+  <si>
+    <t>3313617920</t>
+  </si>
+  <si>
+    <t>350.42</t>
+  </si>
+  <si>
+    <t>3370644480</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>3342345344</t>
+  </si>
+  <si>
+    <t>1057.4</t>
+  </si>
+  <si>
+    <t>3327977984</t>
+  </si>
+  <si>
+    <t>2294.94</t>
+  </si>
+  <si>
+    <t>3342834432</t>
+  </si>
+  <si>
+    <t>7144.05</t>
+  </si>
+  <si>
+    <t>3360202240</t>
+  </si>
+  <si>
+    <t>159.49</t>
+  </si>
+  <si>
+    <t>3350472608</t>
+  </si>
+  <si>
+    <t>440.02</t>
+  </si>
+  <si>
+    <t>3328117760</t>
+  </si>
+  <si>
+    <t>38.72</t>
+  </si>
+  <si>
+    <t>1277.4</t>
+  </si>
+  <si>
+    <t>3383161024</t>
+  </si>
+  <si>
+    <t>3321.77</t>
+  </si>
+  <si>
+    <t>3308832512</t>
+  </si>
+  <si>
+    <t>9752.33</t>
+  </si>
+  <si>
+    <t>3398754304</t>
+  </si>
+  <si>
+    <t>238.81</t>
+  </si>
+  <si>
+    <t>3373323776</t>
+  </si>
+  <si>
+    <t>470.1</t>
+  </si>
+  <si>
+    <t>3364789504</t>
+  </si>
+  <si>
+    <t>42.01</t>
+  </si>
+  <si>
+    <t>3373126016</t>
+  </si>
+  <si>
+    <t>1497.4</t>
+  </si>
+  <si>
+    <t>3331090848</t>
+  </si>
+  <si>
+    <t>4324.31</t>
+  </si>
+  <si>
+    <t>3393575680</t>
+  </si>
+  <si>
+    <t>2084.13</t>
+  </si>
+  <si>
+    <t>3312767360</t>
+  </si>
+  <si>
+    <t>252.81</t>
+  </si>
+  <si>
+    <t>3314133760</t>
+  </si>
+  <si>
+    <t>558.66</t>
+  </si>
+  <si>
+    <t>3311035024</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>3385315328</t>
+  </si>
+  <si>
+    <t>1717.39</t>
   </si>
 </sst>
 </file>
@@ -1269,19 +1395,19 @@
         <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
@@ -1289,10 +1415,10 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1301,7 +1427,7 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1438,7 @@
         <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
         <v>231</v>
@@ -1321,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -1332,7 +1458,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1341,7 +1467,7 @@
         <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
@@ -1349,19 +1475,19 @@
         <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -1369,19 +1495,19 @@
         <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
@@ -1389,15 +1515,312 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="413">
   <si>
     <t>NormalTester</t>
   </si>
@@ -1039,6 +1039,222 @@
   </si>
   <si>
     <t>1717.39</t>
+  </si>
+  <si>
+    <t>iuliia.3</t>
+  </si>
+  <si>
+    <t>3352830976</t>
+  </si>
+  <si>
+    <t>3334454016</t>
+  </si>
+  <si>
+    <t>189.36</t>
+  </si>
+  <si>
+    <t>3380646912</t>
+  </si>
+  <si>
+    <t>660.91</t>
+  </si>
+  <si>
+    <t>3327241472</t>
+  </si>
+  <si>
+    <t>56.15</t>
+  </si>
+  <si>
+    <t>3368612608</t>
+  </si>
+  <si>
+    <t>1678.73</t>
+  </si>
+  <si>
+    <t>3308783360</t>
+  </si>
+  <si>
+    <t>5399.67</t>
+  </si>
+  <si>
+    <t>3359951360</t>
+  </si>
+  <si>
+    <t>14584.28</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>3314229328</t>
+  </si>
+  <si>
+    <t>199.36</t>
+  </si>
+  <si>
+    <t>750.74</t>
+  </si>
+  <si>
+    <t>60.15</t>
+  </si>
+  <si>
+    <t>1897.04</t>
+  </si>
+  <si>
+    <t>3372832000</t>
+  </si>
+  <si>
+    <t>3392461568</t>
+  </si>
+  <si>
+    <t>287.52</t>
+  </si>
+  <si>
+    <t>3371001216</t>
+  </si>
+  <si>
+    <t>735.25</t>
+  </si>
+  <si>
+    <t>3347847168</t>
+  </si>
+  <si>
+    <t>63.42</t>
+  </si>
+  <si>
+    <t>3308438016</t>
+  </si>
+  <si>
+    <t>2105.35</t>
+  </si>
+  <si>
+    <t>3325735680</t>
+  </si>
+  <si>
+    <t>5790.55</t>
+  </si>
+  <si>
+    <t>3365369600</t>
+  </si>
+  <si>
+    <t>2654.76</t>
+  </si>
+  <si>
+    <t>3308594432</t>
+  </si>
+  <si>
+    <t>301.52</t>
+  </si>
+  <si>
+    <t>824.08</t>
+  </si>
+  <si>
+    <t>67.42</t>
+  </si>
+  <si>
+    <t>2313.64</t>
+  </si>
+  <si>
+    <t>6200.83</t>
+  </si>
+  <si>
+    <t>2767.41</t>
+  </si>
+  <si>
+    <t>315.52</t>
+  </si>
+  <si>
+    <t>329.52</t>
+  </si>
+  <si>
+    <t>3348859392</t>
+  </si>
+  <si>
+    <t>357.52</t>
+  </si>
+  <si>
+    <t>371.52</t>
+  </si>
+  <si>
+    <t>3376005339</t>
+  </si>
+  <si>
+    <t>3306281175</t>
+  </si>
+  <si>
+    <t>70.69</t>
+  </si>
+  <si>
+    <t>3373696546</t>
+  </si>
+  <si>
+    <t>3318716612</t>
+  </si>
+  <si>
+    <t>74.68</t>
+  </si>
+  <si>
+    <t>3388898189</t>
+  </si>
+  <si>
+    <t>2521.94</t>
+  </si>
+  <si>
+    <t>3353686220</t>
+  </si>
+  <si>
+    <t>3355506230</t>
+  </si>
+  <si>
+    <t>6358.69</t>
+  </si>
+  <si>
+    <t>3340162017</t>
+  </si>
+  <si>
+    <t>2908.32</t>
+  </si>
+  <si>
+    <t>3357642259</t>
+  </si>
+  <si>
+    <t>399.52</t>
+  </si>
+  <si>
+    <t>413.52</t>
+  </si>
+  <si>
+    <t>961.74</t>
+  </si>
+  <si>
+    <t>427.52</t>
+  </si>
+  <si>
+    <t>3341297037</t>
+  </si>
+  <si>
+    <t>81.95</t>
+  </si>
+  <si>
+    <t>3337332298</t>
+  </si>
+  <si>
+    <t>2730.25</t>
+  </si>
+  <si>
+    <t>3336089182</t>
+  </si>
+  <si>
+    <t>6768.98</t>
+  </si>
+  <si>
+    <t>3309999836</t>
+  </si>
+  <si>
+    <t>3020.98</t>
+  </si>
+  <si>
+    <t>3370312014</t>
   </si>
 </sst>
 </file>
@@ -1395,19 +1611,19 @@
         <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -1415,10 +1631,10 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1427,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -1438,7 +1654,7 @@
         <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
         <v>231</v>
@@ -1447,7 +1663,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
@@ -1458,7 +1674,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1467,7 +1683,7 @@
         <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
@@ -1475,19 +1691,19 @@
         <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
@@ -1495,19 +1711,19 @@
         <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
@@ -1515,19 +1731,16 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8">
@@ -1535,19 +1748,16 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9">
@@ -1558,7 +1768,7 @@
         <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
         <v>231</v>
@@ -1575,16 +1785,13 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1799,16 @@
         <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12">
@@ -1612,19 +1816,16 @@
         <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="13">
@@ -1635,7 +1836,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1643,28 +1844,25 @@
       <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15">
@@ -1672,119 +1870,104 @@
         <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>331</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>333</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>335</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21">
@@ -1792,36 +1975,344 @@
         <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>232</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>10</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>10783.08</t>
+  </si>
+  <si>
+    <t>442.61</t>
+  </si>
+  <si>
+    <t>3380463234</t>
+  </si>
+  <si>
+    <t>452.61</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
     <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -675,642 +684,13 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="G1" t="s">
+        <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" t="s">
-        <v>94</v>
+      <c r="H1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>10</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>452.61</t>
+  </si>
+  <si>
+    <t>1976.26</t>
+  </si>
+  <si>
+    <t>MasterCard,null</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -669,28 +678,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="199">
   <si>
     <t>10</t>
   </si>
@@ -325,6 +325,294 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>3335160798</t>
+  </si>
+  <si>
+    <t>462.61</t>
+  </si>
+  <si>
+    <t>3342264979</t>
+  </si>
+  <si>
+    <t>2016.26</t>
+  </si>
+  <si>
+    <t>2016.23</t>
+  </si>
+  <si>
+    <t>161.54</t>
+  </si>
+  <si>
+    <t>3347688711</t>
+  </si>
+  <si>
+    <t>165.54</t>
+  </si>
+  <si>
+    <t>5021.54</t>
+  </si>
+  <si>
+    <t>3319975742</t>
+  </si>
+  <si>
+    <t>5231.54</t>
+  </si>
+  <si>
+    <t>5229.85</t>
+  </si>
+  <si>
+    <t>10678.07</t>
+  </si>
+  <si>
+    <t>3350748410</t>
+  </si>
+  <si>
+    <t>10853.07</t>
+  </si>
+  <si>
+    <t>10852.12</t>
+  </si>
+  <si>
+    <t>28262.69</t>
+  </si>
+  <si>
+    <t>3348867444</t>
+  </si>
+  <si>
+    <t>28762.69</t>
+  </si>
+  <si>
+    <t>28762.07</t>
+  </si>
+  <si>
+    <t>3353994326</t>
+  </si>
+  <si>
+    <t>472.61</t>
+  </si>
+  <si>
+    <t>2066.09</t>
+  </si>
+  <si>
+    <t>3320983274</t>
+  </si>
+  <si>
+    <t>2106.09</t>
+  </si>
+  <si>
+    <t>2106.06</t>
+  </si>
+  <si>
+    <t>168.74</t>
+  </si>
+  <si>
+    <t>172.74</t>
+  </si>
+  <si>
+    <t>3354401062</t>
+  </si>
+  <si>
+    <t>5439.85</t>
+  </si>
+  <si>
+    <t>5438.15</t>
+  </si>
+  <si>
+    <t>11043.86</t>
+  </si>
+  <si>
+    <t>3357770523</t>
+  </si>
+  <si>
+    <t>11218.86</t>
+  </si>
+  <si>
+    <t>11217.93</t>
+  </si>
+  <si>
+    <t>29215.39</t>
+  </si>
+  <si>
+    <t>334786242</t>
+  </si>
+  <si>
+    <t>29715.39</t>
+  </si>
+  <si>
+    <t>29714.73</t>
+  </si>
+  <si>
+    <t>649.04</t>
+  </si>
+  <si>
+    <t>3341568185</t>
+  </si>
+  <si>
+    <t>663.04</t>
+  </si>
+  <si>
+    <t>2062.6</t>
+  </si>
+  <si>
+    <t>3302864374</t>
+  </si>
+  <si>
+    <t>2102.6</t>
+  </si>
+  <si>
+    <t>172.01</t>
+  </si>
+  <si>
+    <t>3353853529</t>
+  </si>
+  <si>
+    <t>176.01</t>
+  </si>
+  <si>
+    <t>3343803217</t>
+  </si>
+  <si>
+    <t>5648.15</t>
+  </si>
+  <si>
+    <t>5646.44</t>
+  </si>
+  <si>
+    <t>11350.91</t>
+  </si>
+  <si>
+    <t>3399416467</t>
+  </si>
+  <si>
+    <t>11510.91</t>
+  </si>
+  <si>
+    <t>11508.77</t>
+  </si>
+  <si>
+    <t>5136.34</t>
+  </si>
+  <si>
+    <t>3311913858</t>
+  </si>
+  <si>
+    <t>5261.34</t>
+  </si>
+  <si>
+    <t>5248.99</t>
+  </si>
+  <si>
+    <t>3326765027</t>
+  </si>
+  <si>
+    <t>677.04</t>
+  </si>
+  <si>
+    <t>2151.43</t>
+  </si>
+  <si>
+    <t>3331167523</t>
+  </si>
+  <si>
+    <t>2191.43</t>
+  </si>
+  <si>
+    <t>179.28</t>
+  </si>
+  <si>
+    <t>3387888923</t>
+  </si>
+  <si>
+    <t>183.28</t>
+  </si>
+  <si>
+    <t>183.27</t>
+  </si>
+  <si>
+    <t>3322867997</t>
+  </si>
+  <si>
+    <t>5856.44</t>
+  </si>
+  <si>
+    <t>5854.75</t>
+  </si>
+  <si>
+    <t>11761.2</t>
+  </si>
+  <si>
+    <t>3384747386</t>
+  </si>
+  <si>
+    <t>11921.2</t>
+  </si>
+  <si>
+    <t>11919.05</t>
+  </si>
+  <si>
+    <t>5319.44</t>
+  </si>
+  <si>
+    <t>3356999874</t>
+  </si>
+  <si>
+    <t>5444.44</t>
+  </si>
+  <si>
+    <t>5432.11</t>
+  </si>
+  <si>
+    <t>3394381507</t>
+  </si>
+  <si>
+    <t>691.04</t>
+  </si>
+  <si>
+    <t>690.9</t>
+  </si>
+  <si>
+    <t>2240.26</t>
+  </si>
+  <si>
+    <t>3390708831</t>
+  </si>
+  <si>
+    <t>2280.26</t>
+  </si>
+  <si>
+    <t>3302377965</t>
+  </si>
+  <si>
+    <t>3340225577</t>
+  </si>
+  <si>
+    <t>3345760269</t>
+  </si>
+  <si>
+    <t>iuliia.7</t>
+  </si>
+  <si>
+    <t>39.97</t>
+  </si>
+  <si>
+    <t>3374872535</t>
+  </si>
+  <si>
+    <t>79.97</t>
+  </si>
+  <si>
+    <t>79.95</t>
+  </si>
+  <si>
+    <t>3389393840</t>
+  </si>
+  <si>
+    <t>119.95</t>
+  </si>
+  <si>
+    <t>119.92</t>
   </si>
 </sst>
 </file>
@@ -693,6 +981,271 @@
         <v>101</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="300">
   <si>
     <t>10</t>
   </si>
@@ -613,6 +613,309 @@
   </si>
   <si>
     <t>119.92</t>
+  </si>
+  <si>
+    <t>503.09</t>
+  </si>
+  <si>
+    <t>3338068263</t>
+  </si>
+  <si>
+    <t>513.08997</t>
+  </si>
+  <si>
+    <t>513.09</t>
+  </si>
+  <si>
+    <t>2287.47</t>
+  </si>
+  <si>
+    <t>3379237016</t>
+  </si>
+  <si>
+    <t>2327.47</t>
+  </si>
+  <si>
+    <t>2327.42</t>
+  </si>
+  <si>
+    <t>186.47</t>
+  </si>
+  <si>
+    <t>3300526535</t>
+  </si>
+  <si>
+    <t>190.47</t>
+  </si>
+  <si>
+    <t>190.5</t>
+  </si>
+  <si>
+    <t>3340370729</t>
+  </si>
+  <si>
+    <t>6064.75</t>
+  </si>
+  <si>
+    <t>6063.59</t>
+  </si>
+  <si>
+    <t>12234.49</t>
+  </si>
+  <si>
+    <t>3346149314</t>
+  </si>
+  <si>
+    <t>12409.49</t>
+  </si>
+  <si>
+    <t>12409.33</t>
+  </si>
+  <si>
+    <t>32318.23</t>
+  </si>
+  <si>
+    <t>3347285761</t>
+  </si>
+  <si>
+    <t>32818.23</t>
+  </si>
+  <si>
+    <t>3307125623</t>
+  </si>
+  <si>
+    <t>523.09</t>
+  </si>
+  <si>
+    <t>2377.73</t>
+  </si>
+  <si>
+    <t>3303409732</t>
+  </si>
+  <si>
+    <t>2417.73</t>
+  </si>
+  <si>
+    <t>2417.67</t>
+  </si>
+  <si>
+    <t>193.71</t>
+  </si>
+  <si>
+    <t>197.71</t>
+  </si>
+  <si>
+    <t>3376155468</t>
+  </si>
+  <si>
+    <t>6273.59</t>
+  </si>
+  <si>
+    <t>6272.44</t>
+  </si>
+  <si>
+    <t>12601.32</t>
+  </si>
+  <si>
+    <t>3314222351</t>
+  </si>
+  <si>
+    <t>12776.32</t>
+  </si>
+  <si>
+    <t>12776.16</t>
+  </si>
+  <si>
+    <t>33273.58</t>
+  </si>
+  <si>
+    <t>3366974200</t>
+  </si>
+  <si>
+    <t>33773.58</t>
+  </si>
+  <si>
+    <t>718.36</t>
+  </si>
+  <si>
+    <t>3302938277</t>
+  </si>
+  <si>
+    <t>732.36</t>
+  </si>
+  <si>
+    <t>2367.78</t>
+  </si>
+  <si>
+    <t>3353413515</t>
+  </si>
+  <si>
+    <t>2407.78</t>
+  </si>
+  <si>
+    <t>196.98</t>
+  </si>
+  <si>
+    <t>334303291</t>
+  </si>
+  <si>
+    <t>200.98</t>
+  </si>
+  <si>
+    <t>201.01</t>
+  </si>
+  <si>
+    <t>3389312472</t>
+  </si>
+  <si>
+    <t>6482.44</t>
+  </si>
+  <si>
+    <t>6481.27</t>
+  </si>
+  <si>
+    <t>12901.37</t>
+  </si>
+  <si>
+    <t>3337587818</t>
+  </si>
+  <si>
+    <t>13061.37</t>
+  </si>
+  <si>
+    <t>13060.6</t>
+  </si>
+  <si>
+    <t>5828.91</t>
+  </si>
+  <si>
+    <t>3391079262</t>
+  </si>
+  <si>
+    <t>5953.91</t>
+  </si>
+  <si>
+    <t>5941.62</t>
+  </si>
+  <si>
+    <t>3350852955</t>
+  </si>
+  <si>
+    <t>746.36</t>
+  </si>
+  <si>
+    <t>2457.05</t>
+  </si>
+  <si>
+    <t>3389937558</t>
+  </si>
+  <si>
+    <t>2497.05</t>
+  </si>
+  <si>
+    <t>2497.06</t>
+  </si>
+  <si>
+    <t>204.28</t>
+  </si>
+  <si>
+    <t>3355441079</t>
+  </si>
+  <si>
+    <t>208.28</t>
+  </si>
+  <si>
+    <t>208.31</t>
+  </si>
+  <si>
+    <t>3334416129</t>
+  </si>
+  <si>
+    <t>6691.27</t>
+  </si>
+  <si>
+    <t>6690.12</t>
+  </si>
+  <si>
+    <t>13313.14</t>
+  </si>
+  <si>
+    <t>3389932650</t>
+  </si>
+  <si>
+    <t>13473.14</t>
+  </si>
+  <si>
+    <t>13472.36</t>
+  </si>
+  <si>
+    <t>6012.68</t>
+  </si>
+  <si>
+    <t>3379664997</t>
+  </si>
+  <si>
+    <t>6137.68</t>
+  </si>
+  <si>
+    <t>6125.39</t>
+  </si>
+  <si>
+    <t>3378514745</t>
+  </si>
+  <si>
+    <t>760.36</t>
+  </si>
+  <si>
+    <t>760.28</t>
+  </si>
+  <si>
+    <t>2546.33</t>
+  </si>
+  <si>
+    <t>3354676935</t>
+  </si>
+  <si>
+    <t>2586.33</t>
+  </si>
+  <si>
+    <t>211.58</t>
+  </si>
+  <si>
+    <t>3325016651</t>
+  </si>
+  <si>
+    <t>215.58</t>
+  </si>
+  <si>
+    <t>215.62</t>
+  </si>
+  <si>
+    <t>3314999831</t>
+  </si>
+  <si>
+    <t>6900.12</t>
+  </si>
+  <si>
+    <t>6898.95</t>
+  </si>
+  <si>
+    <t>13724.9</t>
+  </si>
+  <si>
+    <t>3302739219</t>
+  </si>
+  <si>
+    <t>13884.9</t>
+  </si>
+  <si>
+    <t>3328210013</t>
+  </si>
+  <si>
+    <t>6250.39</t>
+  </si>
+  <si>
+    <t>6238.11</t>
   </si>
 </sst>
 </file>
@@ -963,290 +1266,7 @@
     <col min="1" max="2" width="16.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>KWD</t>
   </si>
@@ -37,6 +37,417 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>iuliia.1</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>553.62</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Visa,Worldpay</t>
+  </si>
+  <si>
+    <t>3333089347</t>
+  </si>
+  <si>
+    <t>563.62</t>
+  </si>
+  <si>
+    <t>3368845193</t>
+  </si>
+  <si>
+    <t>573.62</t>
+  </si>
+  <si>
+    <t>iuliia.4</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3318975974</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>39.95</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>American Express,Worldpay</t>
+  </si>
+  <si>
+    <t>3325952420</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.23</t>
+  </si>
+  <si>
+    <t>iuliia.2</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>6898.95</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>336890293</t>
+  </si>
+  <si>
+    <t>7108.95</t>
+  </si>
+  <si>
+    <t>7107.8</t>
+  </si>
+  <si>
+    <t>iuliia.6</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>14049.81</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>3377833498</t>
+  </si>
+  <si>
+    <t>14224.81</t>
+  </si>
+  <si>
+    <t>3307953658</t>
+  </si>
+  <si>
+    <t>14224.59</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>37045.78</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>3369019516</t>
+  </si>
+  <si>
+    <t>37545.78</t>
+  </si>
+  <si>
+    <t>37546.11</t>
+  </si>
+  <si>
+    <t>3340397776</t>
+  </si>
+  <si>
+    <t>583.62</t>
+  </si>
+  <si>
+    <t>90.26</t>
+  </si>
+  <si>
+    <t>3309648558</t>
+  </si>
+  <si>
+    <t>130.26001</t>
+  </si>
+  <si>
+    <t>130.21</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>14.43</t>
+  </si>
+  <si>
+    <t>3383217252</t>
+  </si>
+  <si>
+    <t>7317.8</t>
+  </si>
+  <si>
+    <t>7316.63</t>
+  </si>
+  <si>
+    <t>14416.7</t>
+  </si>
+  <si>
+    <t>3385526596</t>
+  </si>
+  <si>
+    <t>38001.29</t>
+  </si>
+  <si>
+    <t>3324764849</t>
+  </si>
+  <si>
+    <t>38501.29</t>
+  </si>
+  <si>
+    <t>38501.25</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>801.48</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Visa,Adyen</t>
+  </si>
+  <si>
+    <t>3351340224</t>
+  </si>
+  <si>
+    <t>815.48</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>127.52</t>
+  </si>
+  <si>
+    <t>MasterCard,Adyen</t>
+  </si>
+  <si>
+    <t>167.51999</t>
+  </si>
+  <si>
+    <t>2635.6</t>
+  </si>
+  <si>
+    <t>3392211098</t>
+  </si>
+  <si>
+    <t>2675.6</t>
+  </si>
+  <si>
+    <t>218.89</t>
+  </si>
+  <si>
+    <t>American Express,Adyen</t>
+  </si>
+  <si>
+    <t>3342643869</t>
+  </si>
+  <si>
+    <t>222.89</t>
+  </si>
+  <si>
+    <t>222.92</t>
+  </si>
+  <si>
+    <t>3383242182</t>
+  </si>
+  <si>
+    <t>7526.63</t>
+  </si>
+  <si>
+    <t>7525.48</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>14707.32</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>3332467261</t>
+  </si>
+  <si>
+    <t>14867.32</t>
+  </si>
+  <si>
+    <t>14866.59</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>6634.92</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>3307716983</t>
+  </si>
+  <si>
+    <t>6759.92</t>
+  </si>
+  <si>
+    <t>6747.6</t>
+  </si>
+  <si>
+    <t>3335207838</t>
+  </si>
+  <si>
+    <t>829.48</t>
+  </si>
+  <si>
+    <t>2724.88</t>
+  </si>
+  <si>
+    <t>3305824752</t>
+  </si>
+  <si>
+    <t>2764.88</t>
+  </si>
+  <si>
+    <t>226.19</t>
+  </si>
+  <si>
+    <t>3352660591</t>
+  </si>
+  <si>
+    <t>230.19</t>
+  </si>
+  <si>
+    <t>230.22</t>
+  </si>
+  <si>
+    <t>3391307280</t>
+  </si>
+  <si>
+    <t>7735.48</t>
+  </si>
+  <si>
+    <t>7734.31</t>
+  </si>
+  <si>
+    <t>15119.06</t>
+  </si>
+  <si>
+    <t>3352526369</t>
+  </si>
+  <si>
+    <t>15279.06</t>
+  </si>
+  <si>
+    <t>15278.33</t>
+  </si>
+  <si>
+    <t>6818.68</t>
+  </si>
+  <si>
+    <t>3361389552</t>
+  </si>
+  <si>
+    <t>6943.68</t>
+  </si>
+  <si>
+    <t>6931.42</t>
+  </si>
+  <si>
+    <t>Visa,Global Collect</t>
+  </si>
+  <si>
+    <t>3309390034</t>
+  </si>
+  <si>
+    <t>843.48</t>
+  </si>
+  <si>
+    <t>843.4</t>
+  </si>
+  <si>
+    <t>2814.15</t>
+  </si>
+  <si>
+    <t>MasterCard,Global Collect</t>
+  </si>
+  <si>
+    <t>3369235145</t>
+  </si>
+  <si>
+    <t>2854.15</t>
+  </si>
+  <si>
+    <t>233.49</t>
+  </si>
+  <si>
+    <t>American Express,Global Collect</t>
+  </si>
+  <si>
+    <t>3337107512</t>
+  </si>
+  <si>
+    <t>237.49</t>
+  </si>
+  <si>
+    <t>237.53</t>
+  </si>
+  <si>
+    <t>3305324394</t>
+  </si>
+  <si>
+    <t>7944.31</t>
+  </si>
+  <si>
+    <t>7943.16</t>
+  </si>
+  <si>
+    <t>15530.93</t>
+  </si>
+  <si>
+    <t>3315063490</t>
+  </si>
+  <si>
+    <t>15690.93</t>
+  </si>
+  <si>
+    <t>3300820399</t>
+  </si>
+  <si>
+    <t>15865.1</t>
+  </si>
+  <si>
+    <t>3396955846</t>
+  </si>
+  <si>
+    <t>16040.1</t>
+  </si>
+  <si>
+    <t>16040.01</t>
   </si>
 </sst>
 </file>
@@ -388,30 +799,861 @@
     <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="248">
   <si>
     <t>KWD</t>
   </si>
@@ -448,6 +448,318 @@
   </si>
   <si>
     <t>16040.01</t>
+  </si>
+  <si>
+    <t>614.14</t>
+  </si>
+  <si>
+    <t>3342018656</t>
+  </si>
+  <si>
+    <t>624.14</t>
+  </si>
+  <si>
+    <t>2964.37</t>
+  </si>
+  <si>
+    <t>3347828840</t>
+  </si>
+  <si>
+    <t>3004.37</t>
+  </si>
+  <si>
+    <t>239.69</t>
+  </si>
+  <si>
+    <t>3301595335</t>
+  </si>
+  <si>
+    <t>243.69</t>
+  </si>
+  <si>
+    <t>8016.01</t>
+  </si>
+  <si>
+    <t>3372020040</t>
+  </si>
+  <si>
+    <t>8226.01</t>
+  </si>
+  <si>
+    <t>16120.31</t>
+  </si>
+  <si>
+    <t>3332341279</t>
+  </si>
+  <si>
+    <t>16295.31</t>
+  </si>
+  <si>
+    <t>16295.26</t>
+  </si>
+  <si>
+    <t>42235.25</t>
+  </si>
+  <si>
+    <t>3385478619</t>
+  </si>
+  <si>
+    <t>42735.25</t>
+  </si>
+  <si>
+    <t>42735.31</t>
+  </si>
+  <si>
+    <t>3334833518</t>
+  </si>
+  <si>
+    <t>634.14</t>
+  </si>
+  <si>
+    <t>279.69</t>
+  </si>
+  <si>
+    <t>3054.5</t>
+  </si>
+  <si>
+    <t>3368040946</t>
+  </si>
+  <si>
+    <t>8436.01</t>
+  </si>
+  <si>
+    <t>8436.02</t>
+  </si>
+  <si>
+    <t>16488.2</t>
+  </si>
+  <si>
+    <t>3387563444</t>
+  </si>
+  <si>
+    <t>16663.2</t>
+  </si>
+  <si>
+    <t>16663.14</t>
+  </si>
+  <si>
+    <t>43188.75</t>
+  </si>
+  <si>
+    <t>3303286651</t>
+  </si>
+  <si>
+    <t>43688.75</t>
+  </si>
+  <si>
+    <t>43688.81</t>
+  </si>
+  <si>
+    <t>872.96</t>
+  </si>
+  <si>
+    <t>3338501389</t>
+  </si>
+  <si>
+    <t>886.96</t>
+  </si>
+  <si>
+    <t>2991.54</t>
+  </si>
+  <si>
+    <t>3348744454</t>
+  </si>
+  <si>
+    <t>8646.02</t>
+  </si>
+  <si>
+    <t>8646.01</t>
+  </si>
+  <si>
+    <t>16778.11</t>
+  </si>
+  <si>
+    <t>3357010454</t>
+  </si>
+  <si>
+    <t>16938.11</t>
+  </si>
+  <si>
+    <t>16938.12</t>
+  </si>
+  <si>
+    <t>8406.69</t>
+  </si>
+  <si>
+    <t>3337658859</t>
+  </si>
+  <si>
+    <t>8531.69</t>
+  </si>
+  <si>
+    <t>8531.72</t>
+  </si>
+  <si>
+    <t>3342771576</t>
+  </si>
+  <si>
+    <t>900.96</t>
+  </si>
+  <si>
+    <t>3364783625</t>
+  </si>
+  <si>
+    <t>8856.01</t>
+  </si>
+  <si>
+    <t>8856.0</t>
+  </si>
+  <si>
+    <t>17190.02</t>
+  </si>
+  <si>
+    <t>3338216383</t>
+  </si>
+  <si>
+    <t>17350.02</t>
+  </si>
+  <si>
+    <t>17349.89</t>
+  </si>
+  <si>
+    <t>8611.07</t>
+  </si>
+  <si>
+    <t>3349164693</t>
+  </si>
+  <si>
+    <t>8736.07</t>
+  </si>
+  <si>
+    <t>8736.09</t>
+  </si>
+  <si>
+    <t>914.96</t>
+  </si>
+  <si>
+    <t>8856</t>
+  </si>
+  <si>
+    <t>3314107415</t>
+  </si>
+  <si>
+    <t>9066.0</t>
+  </si>
+  <si>
+    <t>9066.01</t>
+  </si>
+  <si>
+    <t>17601.8</t>
+  </si>
+  <si>
+    <t>3362068937</t>
+  </si>
+  <si>
+    <t>17761.8</t>
+  </si>
+  <si>
+    <t>17761.81</t>
+  </si>
+  <si>
+    <t>8815.51</t>
+  </si>
+  <si>
+    <t>3398533385</t>
+  </si>
+  <si>
+    <t>8940.51</t>
+  </si>
+  <si>
+    <t>8940.53</t>
+  </si>
+  <si>
+    <t>130.2</t>
+  </si>
+  <si>
+    <t>3394994386</t>
+  </si>
+  <si>
+    <t>170.2</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>17.58</t>
+  </si>
+  <si>
+    <t>166.69</t>
+  </si>
+  <si>
+    <t>3397653848</t>
+  </si>
+  <si>
+    <t>206.69</t>
+  </si>
+  <si>
+    <t>16.84</t>
+  </si>
+  <si>
+    <t>3328142355</t>
+  </si>
+  <si>
+    <t>20.84</t>
+  </si>
+  <si>
+    <t>255.79</t>
+  </si>
+  <si>
+    <t>3319360456</t>
+  </si>
+  <si>
+    <t>295.78998</t>
+  </si>
+  <si>
+    <t>3303246347</t>
+  </si>
+  <si>
+    <t>24.84</t>
+  </si>
+  <si>
+    <t>60.84</t>
+  </si>
+  <si>
+    <t>3340953899</t>
+  </si>
+  <si>
+    <t>295.79</t>
+  </si>
+  <si>
+    <t>24.09</t>
+  </si>
+  <si>
+    <t>3377655669</t>
+  </si>
+  <si>
+    <t>28.09</t>
+  </si>
+  <si>
+    <t>344.9</t>
+  </si>
+  <si>
+    <t>3363101078</t>
+  </si>
+  <si>
+    <t>384.9</t>
+  </si>
+  <si>
+    <t>31.35</t>
+  </si>
+  <si>
+    <t>3310014399</t>
+  </si>
+  <si>
+    <t>35.35</t>
   </si>
 </sst>
 </file>
@@ -807,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -816,13 +1128,13 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -833,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -842,13 +1154,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
@@ -859,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -868,13 +1180,13 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
@@ -885,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -894,13 +1206,13 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +1223,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -920,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -934,172 +1246,181 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>183</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13">
@@ -1107,195 +1428,204 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>194</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -1303,357 +1633,308 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="140">
   <si>
     <t>KWD</t>
   </si>
@@ -30,12 +30,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Egypt Deal 200</t>
-  </si>
-  <si>
-    <t>3328549118</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -45,411 +39,90 @@
     <t>USD</t>
   </si>
   <si>
-    <t>553.62</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>Visa,Worldpay</t>
   </si>
   <si>
-    <t>3333089347</t>
-  </si>
-  <si>
-    <t>563.62</t>
-  </si>
-  <si>
-    <t>3368845193</t>
-  </si>
-  <si>
-    <t>573.62</t>
-  </si>
-  <si>
     <t>iuliia.4</t>
   </si>
   <si>
     <t>SAR</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>3318975974</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>39.95</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>American Express,Worldpay</t>
   </si>
   <si>
-    <t>3325952420</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.23</t>
-  </si>
-  <si>
     <t>iuliia.2</t>
   </si>
   <si>
     <t>NZD</t>
   </si>
   <si>
-    <t>6898.95</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
-    <t>336890293</t>
-  </si>
-  <si>
-    <t>7108.95</t>
-  </si>
-  <si>
-    <t>7107.8</t>
-  </si>
-  <si>
     <t>iuliia.6</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>14049.81</t>
-  </si>
-  <si>
     <t>175</t>
   </si>
   <si>
-    <t>3377833498</t>
-  </si>
-  <si>
-    <t>14224.81</t>
-  </si>
-  <si>
-    <t>3307953658</t>
-  </si>
-  <si>
-    <t>14224.59</t>
-  </si>
-  <si>
     <t>QAR</t>
   </si>
   <si>
-    <t>37045.78</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
-    <t>3369019516</t>
-  </si>
-  <si>
-    <t>37545.78</t>
-  </si>
-  <si>
-    <t>37546.11</t>
-  </si>
-  <si>
-    <t>3340397776</t>
-  </si>
-  <si>
-    <t>583.62</t>
-  </si>
-  <si>
-    <t>90.26</t>
-  </si>
-  <si>
-    <t>3309648558</t>
-  </si>
-  <si>
-    <t>130.26001</t>
-  </si>
-  <si>
-    <t>130.21</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>14.43</t>
-  </si>
-  <si>
-    <t>3383217252</t>
-  </si>
-  <si>
-    <t>7317.8</t>
-  </si>
-  <si>
-    <t>7316.63</t>
-  </si>
-  <si>
-    <t>14416.7</t>
-  </si>
-  <si>
-    <t>3385526596</t>
-  </si>
-  <si>
-    <t>38001.29</t>
-  </si>
-  <si>
-    <t>3324764849</t>
-  </si>
-  <si>
-    <t>38501.29</t>
-  </si>
-  <si>
-    <t>38501.25</t>
-  </si>
-  <si>
     <t>CAD</t>
   </si>
   <si>
-    <t>801.48</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>Visa,Adyen</t>
   </si>
   <si>
-    <t>3351340224</t>
-  </si>
-  <si>
-    <t>815.48</t>
-  </si>
-  <si>
     <t>AED</t>
   </si>
   <si>
-    <t>127.52</t>
-  </si>
-  <si>
     <t>MasterCard,Adyen</t>
   </si>
   <si>
-    <t>167.51999</t>
-  </si>
-  <si>
-    <t>2635.6</t>
-  </si>
-  <si>
-    <t>3392211098</t>
-  </si>
-  <si>
-    <t>2675.6</t>
-  </si>
-  <si>
-    <t>218.89</t>
-  </si>
-  <si>
     <t>American Express,Adyen</t>
   </si>
   <si>
-    <t>3342643869</t>
-  </si>
-  <si>
-    <t>222.89</t>
-  </si>
-  <si>
-    <t>222.92</t>
-  </si>
-  <si>
-    <t>3383242182</t>
-  </si>
-  <si>
-    <t>7526.63</t>
-  </si>
-  <si>
-    <t>7525.48</t>
-  </si>
-  <si>
     <t>AUD</t>
   </si>
   <si>
-    <t>14707.32</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
-    <t>3332467261</t>
-  </si>
-  <si>
-    <t>14867.32</t>
-  </si>
-  <si>
-    <t>14866.59</t>
-  </si>
-  <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>6634.92</t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
-    <t>3307716983</t>
-  </si>
-  <si>
-    <t>6759.92</t>
-  </si>
-  <si>
-    <t>6747.6</t>
-  </si>
-  <si>
-    <t>3335207838</t>
-  </si>
-  <si>
-    <t>829.48</t>
-  </si>
-  <si>
-    <t>2724.88</t>
-  </si>
-  <si>
-    <t>3305824752</t>
-  </si>
-  <si>
-    <t>2764.88</t>
-  </si>
-  <si>
-    <t>226.19</t>
-  </si>
-  <si>
-    <t>3352660591</t>
-  </si>
-  <si>
-    <t>230.19</t>
-  </si>
-  <si>
-    <t>230.22</t>
-  </si>
-  <si>
-    <t>3391307280</t>
-  </si>
-  <si>
-    <t>7735.48</t>
-  </si>
-  <si>
-    <t>7734.31</t>
-  </si>
-  <si>
-    <t>15119.06</t>
-  </si>
-  <si>
-    <t>3352526369</t>
-  </si>
-  <si>
-    <t>15279.06</t>
-  </si>
-  <si>
-    <t>15278.33</t>
-  </si>
-  <si>
-    <t>6818.68</t>
-  </si>
-  <si>
-    <t>3361389552</t>
-  </si>
-  <si>
-    <t>6943.68</t>
-  </si>
-  <si>
-    <t>6931.42</t>
-  </si>
-  <si>
     <t>Visa,Global Collect</t>
   </si>
   <si>
-    <t>3309390034</t>
-  </si>
-  <si>
-    <t>843.48</t>
-  </si>
-  <si>
-    <t>843.4</t>
-  </si>
-  <si>
-    <t>2814.15</t>
-  </si>
-  <si>
     <t>MasterCard,Global Collect</t>
   </si>
   <si>
-    <t>3369235145</t>
-  </si>
-  <si>
-    <t>2854.15</t>
-  </si>
-  <si>
-    <t>233.49</t>
-  </si>
-  <si>
     <t>American Express,Global Collect</t>
   </si>
   <si>
-    <t>3337107512</t>
-  </si>
-  <si>
-    <t>237.49</t>
-  </si>
-  <si>
-    <t>237.53</t>
-  </si>
-  <si>
-    <t>3305324394</t>
-  </si>
-  <si>
-    <t>7944.31</t>
-  </si>
-  <si>
-    <t>7943.16</t>
-  </si>
-  <si>
-    <t>15530.93</t>
-  </si>
-  <si>
-    <t>3315063490</t>
-  </si>
-  <si>
-    <t>15690.93</t>
-  </si>
-  <si>
-    <t>3300820399</t>
-  </si>
-  <si>
-    <t>15865.1</t>
-  </si>
-  <si>
-    <t>3396955846</t>
-  </si>
-  <si>
-    <t>16040.1</t>
-  </si>
-  <si>
-    <t>16040.01</t>
-  </si>
-  <si>
     <t>614.14</t>
   </si>
   <si>
@@ -513,15 +186,6 @@
     <t>3334833518</t>
   </si>
   <si>
-    <t>634.14</t>
-  </si>
-  <si>
-    <t>279.69</t>
-  </si>
-  <si>
-    <t>3054.5</t>
-  </si>
-  <si>
     <t>3368040946</t>
   </si>
   <si>
@@ -564,9 +228,6 @@
     <t>886.96</t>
   </si>
   <si>
-    <t>2991.54</t>
-  </si>
-  <si>
     <t>3348744454</t>
   </si>
   <si>
@@ -639,9 +300,6 @@
     <t>8736.09</t>
   </si>
   <si>
-    <t>914.96</t>
-  </si>
-  <si>
     <t>8856</t>
   </si>
   <si>
@@ -723,9 +381,6 @@
     <t>3303246347</t>
   </si>
   <si>
-    <t>24.84</t>
-  </si>
-  <si>
     <t>60.84</t>
   </si>
   <si>
@@ -760,6 +415,27 @@
   </si>
   <si>
     <t>35.35</t>
+  </si>
+  <si>
+    <t>Nigeria Deal 200</t>
+  </si>
+  <si>
+    <t>3372028198</t>
+  </si>
+  <si>
+    <t>dealReseller</t>
+  </si>
+  <si>
+    <t>Nigeria Deal 200,5</t>
+  </si>
+  <si>
+    <t>3355381017</t>
+  </si>
+  <si>
+    <t>3322430935</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
@@ -1108,605 +784,606 @@
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1714,48 +1391,48 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1763,51 +1440,51 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1815,51 +1492,51 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1867,51 +1544,51 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1919,22 +1596,100 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="358">
   <si>
     <t>KWD</t>
   </si>
@@ -664,6 +664,432 @@
   </si>
   <si>
     <t>3381124840</t>
+  </si>
+  <si>
+    <t>101.39</t>
+  </si>
+  <si>
+    <t>3302912898</t>
+  </si>
+  <si>
+    <t>111.39</t>
+  </si>
+  <si>
+    <t>894.32</t>
+  </si>
+  <si>
+    <t>3321332174</t>
+  </si>
+  <si>
+    <t>934.32</t>
+  </si>
+  <si>
+    <t>934.33</t>
+  </si>
+  <si>
+    <t>74.86</t>
+  </si>
+  <si>
+    <t>3371632489</t>
+  </si>
+  <si>
+    <t>78.86</t>
+  </si>
+  <si>
+    <t>3397005016</t>
+  </si>
+  <si>
+    <t>13398.04</t>
+  </si>
+  <si>
+    <t>13398.92</t>
+  </si>
+  <si>
+    <t>26169.13</t>
+  </si>
+  <si>
+    <t>3331321769</t>
+  </si>
+  <si>
+    <t>26344.13</t>
+  </si>
+  <si>
+    <t>26345.58</t>
+  </si>
+  <si>
+    <t>68613.08</t>
+  </si>
+  <si>
+    <t>3320854786</t>
+  </si>
+  <si>
+    <t>69113.08</t>
+  </si>
+  <si>
+    <t>69113.04</t>
+  </si>
+  <si>
+    <t>3376740527</t>
+  </si>
+  <si>
+    <t>121.39</t>
+  </si>
+  <si>
+    <t>984.24</t>
+  </si>
+  <si>
+    <t>3303696454</t>
+  </si>
+  <si>
+    <t>1024.24</t>
+  </si>
+  <si>
+    <t>82.06</t>
+  </si>
+  <si>
+    <t>86.06</t>
+  </si>
+  <si>
+    <t>3333039452</t>
+  </si>
+  <si>
+    <t>13608.92</t>
+  </si>
+  <si>
+    <t>13609.82</t>
+  </si>
+  <si>
+    <t>26537.56</t>
+  </si>
+  <si>
+    <t>3326706394</t>
+  </si>
+  <si>
+    <t>26712.56</t>
+  </si>
+  <si>
+    <t>26713.87</t>
+  </si>
+  <si>
+    <t>69572.22</t>
+  </si>
+  <si>
+    <t>3312860057</t>
+  </si>
+  <si>
+    <t>70072.22</t>
+  </si>
+  <si>
+    <t>70072.19</t>
+  </si>
+  <si>
+    <t>166.71</t>
+  </si>
+  <si>
+    <t>3345408617</t>
+  </si>
+  <si>
+    <t>180.71</t>
+  </si>
+  <si>
+    <t>1003.1</t>
+  </si>
+  <si>
+    <t>3379703285</t>
+  </si>
+  <si>
+    <t>1043.1</t>
+  </si>
+  <si>
+    <t>3363203009</t>
+  </si>
+  <si>
+    <t>13819.82</t>
+  </si>
+  <si>
+    <t>13820.7</t>
+  </si>
+  <si>
+    <t>26767.29</t>
+  </si>
+  <si>
+    <t>3312653663</t>
+  </si>
+  <si>
+    <t>26927.29</t>
+  </si>
+  <si>
+    <t>26932.68</t>
+  </si>
+  <si>
+    <t>12019.99</t>
+  </si>
+  <si>
+    <t>3344055867</t>
+  </si>
+  <si>
+    <t>12144.99</t>
+  </si>
+  <si>
+    <t>12130.0</t>
+  </si>
+  <si>
+    <t>3329913149</t>
+  </si>
+  <si>
+    <t>1083.1</t>
+  </si>
+  <si>
+    <t>33485155</t>
+  </si>
+  <si>
+    <t>88.61</t>
+  </si>
+  <si>
+    <t>3392728808</t>
+  </si>
+  <si>
+    <t>92.61</t>
+  </si>
+  <si>
+    <t>3327162467</t>
+  </si>
+  <si>
+    <t>194.71</t>
+  </si>
+  <si>
+    <t>3340338334</t>
+  </si>
+  <si>
+    <t>96.61</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>3376544810</t>
+  </si>
+  <si>
+    <t>14030.7</t>
+  </si>
+  <si>
+    <t>14031.59</t>
+  </si>
+  <si>
+    <t>27179.17</t>
+  </si>
+  <si>
+    <t>3396006469</t>
+  </si>
+  <si>
+    <t>27339.17</t>
+  </si>
+  <si>
+    <t>27344.56</t>
+  </si>
+  <si>
+    <t>12203.81</t>
+  </si>
+  <si>
+    <t>3304658793</t>
+  </si>
+  <si>
+    <t>12328.81</t>
+  </si>
+  <si>
+    <t>12313.82</t>
+  </si>
+  <si>
+    <t>3342597147</t>
+  </si>
+  <si>
+    <t>3368291085</t>
+  </si>
+  <si>
+    <t>208.71</t>
+  </si>
+  <si>
+    <t>209.02</t>
+  </si>
+  <si>
+    <t>1180.86</t>
+  </si>
+  <si>
+    <t>3337058605</t>
+  </si>
+  <si>
+    <t>1220.86</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>3347541658</t>
+  </si>
+  <si>
+    <t>103.88</t>
+  </si>
+  <si>
+    <t>27591.04</t>
+  </si>
+  <si>
+    <t>3306306485</t>
+  </si>
+  <si>
+    <t>27751.04</t>
+  </si>
+  <si>
+    <t>27756.29</t>
+  </si>
+  <si>
+    <t>12387.57</t>
+  </si>
+  <si>
+    <t>3361540696</t>
+  </si>
+  <si>
+    <t>12512.57</t>
+  </si>
+  <si>
+    <t>12497.64</t>
+  </si>
+  <si>
+    <t>3396284052</t>
+  </si>
+  <si>
+    <t>14241.59</t>
+  </si>
+  <si>
+    <t>14242.47</t>
+  </si>
+  <si>
+    <t>3348594773</t>
+  </si>
+  <si>
+    <t>559.93</t>
+  </si>
+  <si>
+    <t>336130324</t>
+  </si>
+  <si>
+    <t>599.93</t>
+  </si>
+  <si>
+    <t>3398742084</t>
+  </si>
+  <si>
+    <t>459.95</t>
+  </si>
+  <si>
+    <t>459.93</t>
+  </si>
+  <si>
+    <t>3386733181</t>
+  </si>
+  <si>
+    <t>505.93</t>
+  </si>
+  <si>
+    <t>505.92</t>
+  </si>
+  <si>
+    <t>3304068224</t>
+  </si>
+  <si>
+    <t>639.93</t>
+  </si>
+  <si>
+    <t>639.94</t>
+  </si>
+  <si>
+    <t>3363806456</t>
+  </si>
+  <si>
+    <t>679.94</t>
+  </si>
+  <si>
+    <t>3306257911</t>
+  </si>
+  <si>
+    <t>551.92004</t>
+  </si>
+  <si>
+    <t>551.91</t>
+  </si>
+  <si>
+    <t>3313259489</t>
+  </si>
+  <si>
+    <t>597.91</t>
+  </si>
+  <si>
+    <t>597.9</t>
+  </si>
+  <si>
+    <t>ideal031416</t>
+  </si>
+  <si>
+    <t>3319409121</t>
+  </si>
+  <si>
+    <t>edeal031416</t>
+  </si>
+  <si>
+    <t>3363791560</t>
+  </si>
+  <si>
+    <t>3316052794</t>
+  </si>
+  <si>
+    <t>3385638566</t>
+  </si>
+  <si>
+    <t>3346459963</t>
+  </si>
+  <si>
+    <t>3341139004</t>
+  </si>
+  <si>
+    <t>3354448049</t>
+  </si>
+  <si>
+    <t>3392702770</t>
+  </si>
+  <si>
+    <t>3369089316</t>
+  </si>
+  <si>
+    <t>332593511</t>
+  </si>
+  <si>
+    <t>3314819905</t>
+  </si>
+  <si>
+    <t>3388959095</t>
+  </si>
+  <si>
+    <t>interdealreseller</t>
+  </si>
+  <si>
+    <t>India Deal 350,5</t>
+  </si>
+  <si>
+    <t>3329001195</t>
+  </si>
+  <si>
+    <t>edealReseller031416</t>
+  </si>
+  <si>
+    <t>3307312023</t>
+  </si>
+  <si>
+    <t>idealReseller031416</t>
+  </si>
+  <si>
+    <t>3340966253</t>
+  </si>
+  <si>
+    <t>3317522043</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
         <v>50</v>
@@ -1084,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -1101,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -1110,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -1127,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -1136,13 +1562,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -1153,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -1162,13 +1588,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -1179,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -1188,13 +1614,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -1205,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -1214,13 +1640,13 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -1240,13 +1666,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -1257,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1266,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9">
@@ -1283,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -1292,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
@@ -1315,13 +1741,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11">
@@ -1332,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -1341,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
@@ -1358,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>72</v>
@@ -1367,13 +1793,13 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
@@ -1384,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
         <v>96</v>
@@ -1393,13 +1819,13 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
@@ -1410,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -1419,65 +1845,65 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17">
@@ -1485,51 +1911,51 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19">
@@ -1540,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
         <v>96</v>
@@ -1549,13 +1975,13 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
@@ -1563,103 +1989,103 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24">
@@ -1667,155 +2093,149 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
@@ -1823,68 +2243,77 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
@@ -1895,50 +2324,50 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -1947,13 +2376,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
@@ -1964,85 +2393,76 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" t="s">
-        <v>170</v>
-      </c>
-      <c r="H36" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -2051,24 +2471,24 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
@@ -2077,64 +2497,70 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>329</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2143,18 +2569,24 @@
         <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>337</v>
+      </c>
+      <c r="G43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2169,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>192</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
         <v>183</v>
@@ -2180,7 +2612,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2195,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
         <v>186</v>
@@ -2206,7 +2638,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2221,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="G46" t="s">
         <v>197</v>
@@ -2232,22 +2664,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -2258,22 +2690,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>343</v>
+      </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="49">
@@ -2284,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
         <v>203</v>
@@ -2293,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
@@ -2304,19 +2742,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
         <v>207</v>
@@ -2324,25 +2762,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
         <v>207</v>
@@ -2359,13 +2797,13 @@
         <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
         <v>50</v>
@@ -2385,13 +2823,13 @@
         <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="G53" t="s">
         <v>50</v>
@@ -2408,27 +2846,21 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" t="s">
-        <v>207</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
@@ -2437,13 +2869,79 @@
         <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="403">
   <si>
     <t>KWD</t>
   </si>
@@ -856,6 +856,375 @@
   </si>
   <si>
     <t>180.26</t>
+  </si>
+  <si>
+    <t>3366905882</t>
+  </si>
+  <si>
+    <t>2199.96</t>
+  </si>
+  <si>
+    <t>3371559914</t>
+  </si>
+  <si>
+    <t>2239.96</t>
+  </si>
+  <si>
+    <t>179.47</t>
+  </si>
+  <si>
+    <t>3362418976</t>
+  </si>
+  <si>
+    <t>3314345569</t>
+  </si>
+  <si>
+    <t>16552.469</t>
+  </si>
+  <si>
+    <t>16552.5</t>
+  </si>
+  <si>
+    <t>31841.77</t>
+  </si>
+  <si>
+    <t>3391753337</t>
+  </si>
+  <si>
+    <t>32016.77</t>
+  </si>
+  <si>
+    <t>32016.82</t>
+  </si>
+  <si>
+    <t>83382.96</t>
+  </si>
+  <si>
+    <t>3303153878</t>
+  </si>
+  <si>
+    <t>83882.96</t>
+  </si>
+  <si>
+    <t>83882.93</t>
+  </si>
+  <si>
+    <t>262.78</t>
+  </si>
+  <si>
+    <t>3366307991</t>
+  </si>
+  <si>
+    <t>2289.88</t>
+  </si>
+  <si>
+    <t>3392031754</t>
+  </si>
+  <si>
+    <t>2329.88</t>
+  </si>
+  <si>
+    <t>186.67</t>
+  </si>
+  <si>
+    <t>3339155581</t>
+  </si>
+  <si>
+    <t>3320051124</t>
+  </si>
+  <si>
+    <t>16762.5</t>
+  </si>
+  <si>
+    <t>16762.53</t>
+  </si>
+  <si>
+    <t>32208.8</t>
+  </si>
+  <si>
+    <t>3380352563</t>
+  </si>
+  <si>
+    <t>32383.8</t>
+  </si>
+  <si>
+    <t>32383.85</t>
+  </si>
+  <si>
+    <t>84338.83</t>
+  </si>
+  <si>
+    <t>3395214474</t>
+  </si>
+  <si>
+    <t>84838.83</t>
+  </si>
+  <si>
+    <t>84838.79</t>
+  </si>
+  <si>
+    <t>374.61</t>
+  </si>
+  <si>
+    <t>3365133920</t>
+  </si>
+  <si>
+    <t>388.61</t>
+  </si>
+  <si>
+    <t>2330.7</t>
+  </si>
+  <si>
+    <t>3371457056</t>
+  </si>
+  <si>
+    <t>2370.7</t>
+  </si>
+  <si>
+    <t>193.94</t>
+  </si>
+  <si>
+    <t>3385376744</t>
+  </si>
+  <si>
+    <t>197.94</t>
+  </si>
+  <si>
+    <t>3367487209</t>
+  </si>
+  <si>
+    <t>16972.53</t>
+  </si>
+  <si>
+    <t>16972.41</t>
+  </si>
+  <si>
+    <t>32408.07</t>
+  </si>
+  <si>
+    <t>3333247630</t>
+  </si>
+  <si>
+    <t>32568.07</t>
+  </si>
+  <si>
+    <t>32568.04</t>
+  </si>
+  <si>
+    <t>14535.04</t>
+  </si>
+  <si>
+    <t>3350655414</t>
+  </si>
+  <si>
+    <t>14660.04</t>
+  </si>
+  <si>
+    <t>14660.07</t>
+  </si>
+  <si>
+    <t>2419.59</t>
+  </si>
+  <si>
+    <t>3330957734</t>
+  </si>
+  <si>
+    <t>2459.59</t>
+  </si>
+  <si>
+    <t>201.22</t>
+  </si>
+  <si>
+    <t>3369112047</t>
+  </si>
+  <si>
+    <t>205.22</t>
+  </si>
+  <si>
+    <t>3390423758</t>
+  </si>
+  <si>
+    <t>17182.41</t>
+  </si>
+  <si>
+    <t>17182.43</t>
+  </si>
+  <si>
+    <t>32848.19</t>
+  </si>
+  <si>
+    <t>3350453672</t>
+  </si>
+  <si>
+    <t>33008.19</t>
+  </si>
+  <si>
+    <t>33008.15</t>
+  </si>
+  <si>
+    <t>14731.46</t>
+  </si>
+  <si>
+    <t>3345691704</t>
+  </si>
+  <si>
+    <t>14856.46</t>
+  </si>
+  <si>
+    <t>14856.43</t>
+  </si>
+  <si>
+    <t>3388963284</t>
+  </si>
+  <si>
+    <t>2508.49</t>
+  </si>
+  <si>
+    <t>3302724589</t>
+  </si>
+  <si>
+    <t>2548.49</t>
+  </si>
+  <si>
+    <t>208.49</t>
+  </si>
+  <si>
+    <t>3321378767</t>
+  </si>
+  <si>
+    <t>212.49</t>
+  </si>
+  <si>
+    <t>3353650998</t>
+  </si>
+  <si>
+    <t>17392.43</t>
+  </si>
+  <si>
+    <t>17392.46</t>
+  </si>
+  <si>
+    <t>33288.16</t>
+  </si>
+  <si>
+    <t>3328429259</t>
+  </si>
+  <si>
+    <t>33448.16</t>
+  </si>
+  <si>
+    <t>33448.26</t>
+  </si>
+  <si>
+    <t>14927.88</t>
+  </si>
+  <si>
+    <t>3350732534</t>
+  </si>
+  <si>
+    <t>15052.88</t>
+  </si>
+  <si>
+    <t>15052.85</t>
+  </si>
+  <si>
+    <t>3394621995</t>
+  </si>
+  <si>
+    <t>879.94</t>
+  </si>
+  <si>
+    <t>3360057903</t>
+  </si>
+  <si>
+    <t>919.94</t>
+  </si>
+  <si>
+    <t>3358264851</t>
+  </si>
+  <si>
+    <t>827.89</t>
+  </si>
+  <si>
+    <t>827.9</t>
+  </si>
+  <si>
+    <t>3320062912</t>
+  </si>
+  <si>
+    <t>873.9</t>
+  </si>
+  <si>
+    <t>3376069584</t>
+  </si>
+  <si>
+    <t>959.94</t>
+  </si>
+  <si>
+    <t>3397487270</t>
+  </si>
+  <si>
+    <t>999.94</t>
+  </si>
+  <si>
+    <t>3307668047</t>
+  </si>
+  <si>
+    <t>919.9</t>
+  </si>
+  <si>
+    <t>3346990757</t>
+  </si>
+  <si>
+    <t>965.9</t>
+  </si>
+  <si>
+    <t>965.89</t>
+  </si>
+  <si>
+    <t>ideal032816</t>
+  </si>
+  <si>
+    <t>3345815412</t>
+  </si>
+  <si>
+    <t>edeal032816</t>
+  </si>
+  <si>
+    <t>3391525475</t>
+  </si>
+  <si>
+    <t>3365758931</t>
+  </si>
+  <si>
+    <t>3323134048</t>
+  </si>
+  <si>
+    <t>3322588144</t>
+  </si>
+  <si>
+    <t>edealReseller032816</t>
+  </si>
+  <si>
+    <t>3355343163</t>
+  </si>
+  <si>
+    <t>3316254785</t>
+  </si>
+  <si>
+    <t>3323219576</t>
+  </si>
+  <si>
+    <t>3315440759</t>
+  </si>
+  <si>
+    <t>3303157321</t>
+  </si>
+  <si>
+    <t>idealReseller032816</t>
+  </si>
+  <si>
+    <t>3329155745</t>
   </si>
 </sst>
 </file>
@@ -1210,25 +1579,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" t="s">
-        <v>274</v>
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2">
@@ -1236,39 +1602,1242 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>264</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" t="s">
+        <v>360</v>
+      </c>
+      <c r="H28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" t="s">
+        <v>368</v>
+      </c>
+      <c r="H30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" t="s">
+        <v>375</v>
+      </c>
+      <c r="H35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>376</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" t="s">
+        <v>378</v>
+      </c>
+      <c r="H36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>379</v>
+      </c>
+      <c r="G37" t="s">
+        <v>380</v>
+      </c>
+      <c r="H37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>381</v>
+      </c>
+      <c r="G38" t="s">
+        <v>382</v>
+      </c>
+      <c r="H38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G40" t="s">
+        <v>386</v>
+      </c>
+      <c r="H40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>390</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>398</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="276">
   <si>
     <t>KWD</t>
   </si>
@@ -757,6 +757,93 @@
   </si>
   <si>
     <t>3367184853</t>
+  </si>
+  <si>
+    <t>ideal040616</t>
+  </si>
+  <si>
+    <t>3321353511</t>
+  </si>
+  <si>
+    <t>edeal040616</t>
+  </si>
+  <si>
+    <t>Bangladesh Deal 1150</t>
+  </si>
+  <si>
+    <t>3318489448</t>
+  </si>
+  <si>
+    <t>Egypt Deal 150</t>
+  </si>
+  <si>
+    <t>3303529553</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Nigeria Deal 40</t>
+  </si>
+  <si>
+    <t>3327971866</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Pakistan Deal 260</t>
+  </si>
+  <si>
+    <t>edealReseller040616</t>
+  </si>
+  <si>
+    <t>3327881800</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3301456192</t>
+  </si>
+  <si>
+    <t>Kenya Deal 320</t>
+  </si>
+  <si>
+    <t>3323332860</t>
+  </si>
+  <si>
+    <t>Syria Deal 180,5</t>
+  </si>
+  <si>
+    <t>3391406366</t>
+  </si>
+  <si>
+    <t>Philippines Deal 150,5</t>
+  </si>
+  <si>
+    <t>3380105480</t>
+  </si>
+  <si>
+    <t>Yemen Deal 260,5</t>
+  </si>
+  <si>
+    <t>3312002883</t>
+  </si>
+  <si>
+    <t>Nepal Deal 260,5</t>
+  </si>
+  <si>
+    <t>3316826957</t>
+  </si>
+  <si>
+    <t>idealReseller040616</t>
+  </si>
+  <si>
+    <t>India Deal 350,5</t>
+  </si>
+  <si>
+    <t>3375841887</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1210,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1138,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
         <v>243</v>
@@ -1149,22 +1236,328 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>246</v>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="358">
   <si>
     <t>KWD</t>
   </si>
@@ -844,6 +844,252 @@
   </si>
   <si>
     <t>3375841887</t>
+  </si>
+  <si>
+    <t>3333753609</t>
+  </si>
+  <si>
+    <t>3334202470</t>
+  </si>
+  <si>
+    <t>3399066180</t>
+  </si>
+  <si>
+    <t>3358109517</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>3381930175</t>
+  </si>
+  <si>
+    <t>3306792453</t>
+  </si>
+  <si>
+    <t>3369586302</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>3362472968</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>38025.03</t>
+  </si>
+  <si>
+    <t>3342276487</t>
+  </si>
+  <si>
+    <t>38200.03</t>
+  </si>
+  <si>
+    <t>38199.94</t>
+  </si>
+  <si>
+    <t>99485.96</t>
+  </si>
+  <si>
+    <t>3323739705</t>
+  </si>
+  <si>
+    <t>99985.93</t>
+  </si>
+  <si>
+    <t>3339014984</t>
+  </si>
+  <si>
+    <t>100486.25</t>
+  </si>
+  <si>
+    <t>3337963529</t>
+  </si>
+  <si>
+    <t>100986.25</t>
+  </si>
+  <si>
+    <t>100986.22</t>
+  </si>
+  <si>
+    <t>3315144745</t>
+  </si>
+  <si>
+    <t>179.85</t>
+  </si>
+  <si>
+    <t>3329943515</t>
+  </si>
+  <si>
+    <t>219.85</t>
+  </si>
+  <si>
+    <t>17.61</t>
+  </si>
+  <si>
+    <t>3369982417</t>
+  </si>
+  <si>
+    <t>21.61</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>3325455265</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>38776</t>
+  </si>
+  <si>
+    <t>3397636624</t>
+  </si>
+  <si>
+    <t>38951.0</t>
+  </si>
+  <si>
+    <t>38950.92</t>
+  </si>
+  <si>
+    <t>101441.76</t>
+  </si>
+  <si>
+    <t>3324200528</t>
+  </si>
+  <si>
+    <t>101941.76</t>
+  </si>
+  <si>
+    <t>101941.72</t>
+  </si>
+  <si>
+    <t>3336774126</t>
+  </si>
+  <si>
+    <t>264.21</t>
+  </si>
+  <si>
+    <t>3362518051</t>
+  </si>
+  <si>
+    <t>304.21</t>
+  </si>
+  <si>
+    <t>24.89</t>
+  </si>
+  <si>
+    <t>28.89</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>3309155197</t>
+  </si>
+  <si>
+    <t>840.0</t>
+  </si>
+  <si>
+    <t>38941.32</t>
+  </si>
+  <si>
+    <t>3317205756</t>
+  </si>
+  <si>
+    <t>39101.32</t>
+  </si>
+  <si>
+    <t>39101.43</t>
+  </si>
+  <si>
+    <t>17450.87</t>
+  </si>
+  <si>
+    <t>17575.87</t>
+  </si>
+  <si>
+    <t>3354129786</t>
+  </si>
+  <si>
+    <t>69.2</t>
+  </si>
+  <si>
+    <t>3325088319</t>
+  </si>
+  <si>
+    <t>344.21</t>
+  </si>
+  <si>
+    <t>28.16</t>
+  </si>
+  <si>
+    <t>3313456880</t>
+  </si>
+  <si>
+    <t>32.16</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>3384860085</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>3323988613</t>
+  </si>
+  <si>
+    <t>39261.43</t>
+  </si>
+  <si>
+    <t>39261.39</t>
+  </si>
+  <si>
+    <t>17522.27</t>
+  </si>
+  <si>
+    <t>3337517038</t>
+  </si>
+  <si>
+    <t>17647.27</t>
+  </si>
+  <si>
+    <t>17647.23</t>
+  </si>
+  <si>
+    <t>83.2</t>
+  </si>
+  <si>
+    <t>393.1</t>
+  </si>
+  <si>
+    <t>433.1</t>
+  </si>
+  <si>
+    <t>397.1</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>39541.4</t>
+  </si>
+  <si>
+    <t>39701.4</t>
+  </si>
+  <si>
+    <t>39666.4</t>
   </si>
 </sst>
 </file>
@@ -1213,25 +1459,25 @@
         <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1239,16 +1485,25 @@
         <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1259,305 +1514,694 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>257</v>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+      <c r="H17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>273</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" t="s">
+        <v>347</v>
+      </c>
+      <c r="H26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" t="s">
-        <v>261</v>
+      <c r="G27" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
